--- a/R/complete6StatesCondProb.xlsx
+++ b/R/complete6StatesCondProb.xlsx
@@ -1,74 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\git\AHL\R\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C598A15-2705-4B50-B618-FE8DBD0C4AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Acupuncture</t>
-  </si>
-  <si>
-    <t>Chiropractic</t>
-  </si>
-  <si>
-    <t>EnergyHeal</t>
-  </si>
-  <si>
-    <t>ExerciseMove</t>
-  </si>
-  <si>
-    <t>Herbal</t>
-  </si>
-  <si>
-    <t>Vitamins</t>
-  </si>
-  <si>
-    <t>Homeopathy</t>
-  </si>
-  <si>
-    <t>Hypnosis</t>
-  </si>
-  <si>
-    <t>ImageryTech</t>
-  </si>
-  <si>
-    <t>Massage</t>
-  </si>
-  <si>
-    <t>RelaxMeditate</t>
-  </si>
-  <si>
-    <t>SpecialDiet</t>
-  </si>
-  <si>
-    <t>PraySpirit</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -170,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,351 +350,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.73046875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Acupuncture</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Chiropractic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EnergyHeal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ExerciseMove</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Herbal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Vitamins</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Homeopathy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hypnosis</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ImageryTech</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Massage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RelaxMeditate</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SpecialDiet</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>PraySpirit</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0.02495304144408158</v>
       </c>
       <c r="B2">
-        <v>2.4953041444081579E-2</v>
+        <v>1.147625663755249e-007</v>
       </c>
       <c r="C2">
-        <v>1.147625663755249E-7</v>
+        <v>0.01289448690581258</v>
       </c>
       <c r="D2">
-        <v>1.289448690581258E-2</v>
+        <v>0.006503826987359004</v>
       </c>
       <c r="E2">
-        <v>6.5038269873590043E-3</v>
+        <v>0.03353884868121006</v>
       </c>
       <c r="F2">
-        <v>3.3538848681210057E-2</v>
+        <v>0.2148503001884753</v>
       </c>
       <c r="G2">
-        <v>0.21485030018847531</v>
+        <v>0.6129357584455488</v>
       </c>
       <c r="H2">
-        <v>0.61293575844554882</v>
+        <v>0.04699834964989051</v>
       </c>
       <c r="I2">
-        <v>4.6998349649890511E-2</v>
+        <v>0.05598517913707551</v>
       </c>
       <c r="J2">
-        <v>5.5985179137075507E-2</v>
+        <v>0.0398662827152852</v>
       </c>
       <c r="K2">
-        <v>3.9866282715285202E-2</v>
+        <v>0.1948307684037764</v>
       </c>
       <c r="L2">
-        <v>0.19483076840377639</v>
+        <v>0.5660354260363887</v>
       </c>
       <c r="M2">
-        <v>0.56603542603638868</v>
-      </c>
-      <c r="N2">
-        <v>5.0283172059391919E-3</v>
+        <v>0.005028317205939192</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>0.001412649497662117</v>
       </c>
       <c r="B3">
-        <v>1.412649497662117E-3</v>
+        <v>0.005418655026418416</v>
       </c>
       <c r="C3">
-        <v>5.4186550264184157E-3</v>
+        <v>9.999999999013929e-011</v>
       </c>
       <c r="D3">
-        <v>9.9999999990139287E-11</v>
+        <v>0.02944458093395862</v>
       </c>
       <c r="E3">
-        <v>2.944458093395862E-2</v>
+        <v>0.3911805738310731</v>
       </c>
       <c r="F3">
-        <v>0.39118057383107308</v>
+        <v>0.1794529266146605</v>
       </c>
       <c r="G3">
-        <v>0.1794529266146605</v>
+        <v>0.1123568121851849</v>
       </c>
       <c r="H3">
-        <v>0.1123568121851849</v>
+        <v>0.1541592982822922</v>
       </c>
       <c r="I3">
-        <v>0.15415929828229219</v>
+        <v>0.05797679738302271</v>
       </c>
       <c r="J3">
-        <v>5.7976797383022707E-2</v>
+        <v>0.4857438862202831</v>
       </c>
       <c r="K3">
-        <v>0.48574388622028308</v>
+        <v>0.6990335016173039</v>
       </c>
       <c r="L3">
-        <v>0.69903350161730393</v>
+        <v>0.06868025690123232</v>
       </c>
       <c r="M3">
-        <v>6.868025690123232E-2</v>
-      </c>
-      <c r="N3">
-        <v>3.3673589583811593E-2</v>
+        <v>0.03367358958381159</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>0.01626283118908446</v>
       </c>
       <c r="B4">
-        <v>1.6262831189084458E-2</v>
+        <v>0.002752347020282845</v>
       </c>
       <c r="C4">
-        <v>2.7523470202828449E-3</v>
+        <v>0.1758011866434579</v>
       </c>
       <c r="D4">
-        <v>0.1758011866434579</v>
+        <v>0.838973933979798</v>
       </c>
       <c r="E4">
-        <v>0.83897393397979803</v>
+        <v>0.06983789287567851</v>
       </c>
       <c r="F4">
-        <v>6.9837892875678514E-2</v>
+        <v>0.05584525438817328</v>
       </c>
       <c r="G4">
-        <v>5.5845254388173282E-2</v>
+        <v>0.03995433179274216</v>
       </c>
       <c r="H4">
-        <v>3.9954331792742159E-2</v>
+        <v>0.01493420450255584</v>
       </c>
       <c r="I4">
-        <v>1.493420450255584E-2</v>
+        <v>0.2050392500917752</v>
       </c>
       <c r="J4">
-        <v>0.2050392500917752</v>
+        <v>0.6455816201191379</v>
       </c>
       <c r="K4">
-        <v>0.64558162011913789</v>
+        <v>0.01880787041609787</v>
       </c>
       <c r="L4">
-        <v>1.8807870416097869E-2</v>
+        <v>0.0100063539441857</v>
       </c>
       <c r="M4">
-        <v>1.0006353944185699E-2</v>
-      </c>
-      <c r="N4">
-        <v>3.0620181413149139E-3</v>
+        <v>0.003062018141314914</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>0.000816825868128813</v>
       </c>
       <c r="B5">
-        <v>8.1682586812881295E-4</v>
+        <v>0.04804735016385713</v>
       </c>
       <c r="C5">
-        <v>4.8047350163857132E-2</v>
+        <v>0.6387242253809309</v>
       </c>
       <c r="D5">
-        <v>0.63872422538093088</v>
+        <v>0.01107205050782958</v>
       </c>
       <c r="E5">
-        <v>1.107205050782958E-2</v>
+        <v>0.0007689174936183014</v>
       </c>
       <c r="F5">
-        <v>7.6891749361830144E-4</v>
+        <v>0.005100253705726941</v>
       </c>
       <c r="G5">
-        <v>5.1002537057269412E-3</v>
+        <v>0.001946101052394167</v>
       </c>
       <c r="H5">
-        <v>1.9461010523941669E-3</v>
+        <v>0.02573610149979887</v>
       </c>
       <c r="I5">
-        <v>2.573610149979887E-2</v>
+        <v>0.1130757949987591</v>
       </c>
       <c r="J5">
-        <v>0.1130757949987591</v>
+        <v>0.004269201441585945</v>
       </c>
       <c r="K5">
-        <v>4.2692014415859451E-3</v>
+        <v>0.01146737404861679</v>
       </c>
       <c r="L5">
-        <v>1.146737404861679E-2</v>
+        <v>0.003715865051059438</v>
       </c>
       <c r="M5">
-        <v>3.715865051059438E-3</v>
-      </c>
-      <c r="N5">
-        <v>2.5172130093622999E-3</v>
+        <v>0.0025172130093623</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>0.1283624418922862</v>
       </c>
       <c r="B6">
-        <v>0.12836244189228621</v>
+        <v>0.3564869112091567</v>
       </c>
       <c r="C6">
-        <v>0.35648691120915671</v>
+        <v>0.3108171904929049</v>
       </c>
       <c r="D6">
-        <v>0.3108171904929049</v>
+        <v>0.04368248439656344</v>
       </c>
       <c r="E6">
-        <v>4.3682484396563442E-2</v>
+        <v>0.08843241283810613</v>
       </c>
       <c r="F6">
-        <v>8.8432412838106128E-2</v>
+        <v>0.0225800231763016</v>
       </c>
       <c r="G6">
-        <v>2.2580023176301599E-2</v>
+        <v>0.4355175012020738</v>
       </c>
       <c r="H6">
-        <v>0.43551750120207378</v>
+        <v>0.7849427872538554</v>
       </c>
       <c r="I6">
-        <v>0.78494278725385536</v>
+        <v>0.08819348382054326</v>
       </c>
       <c r="J6">
-        <v>8.8193483820543261E-2</v>
+        <v>0.2197080277774436</v>
       </c>
       <c r="K6">
-        <v>0.21970802777744361</v>
+        <v>0.04592189644028795</v>
       </c>
       <c r="L6">
-        <v>4.5921896440287949E-2</v>
+        <v>0.01760418405814947</v>
       </c>
       <c r="M6">
-        <v>1.760418405814947E-2</v>
-      </c>
-      <c r="N6">
-        <v>0.78363863187324678</v>
+        <v>0.7836386318732468</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>0.8783688266242373</v>
       </c>
       <c r="B7">
-        <v>0.87836882662423732</v>
+        <v>0.1967700830289156</v>
       </c>
       <c r="C7">
-        <v>0.1967700830289156</v>
+        <v>0.2654700585487572</v>
       </c>
       <c r="D7">
-        <v>0.26547005854875722</v>
+        <v>0.999963019365618</v>
       </c>
       <c r="E7">
-        <v>0.99996301936561804</v>
+        <v>9.99999999997362e-011</v>
       </c>
       <c r="F7">
-        <v>9.9999999999736198E-11</v>
+        <v>0.4981933321805485</v>
       </c>
       <c r="G7">
-        <v>0.49819333218054851</v>
+        <v>0.6703859420655611</v>
       </c>
       <c r="H7">
-        <v>0.67038594206556112</v>
+        <v>0.3564365453182071</v>
       </c>
       <c r="I7">
-        <v>0.35643654531820712</v>
+        <v>0.9175878284609637</v>
       </c>
       <c r="J7">
-        <v>0.91758782846096365</v>
+        <v>0.1210582818440706</v>
       </c>
       <c r="K7">
-        <v>0.12105828184407059</v>
+        <v>0.0507934361728673</v>
       </c>
       <c r="L7">
-        <v>5.0793436172867301E-2</v>
+        <v>0.8059294813392436</v>
       </c>
       <c r="M7">
-        <v>0.80592948133924358</v>
-      </c>
-      <c r="N7">
-        <v>0.86939367660295719</v>
+        <v>0.8693936766029572</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>